--- a/Task20.xlsx
+++ b/Task20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Jan20" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Aug20" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sept20" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Oct20" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Nov20" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="716">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6693,7 +6694,172 @@
     <t xml:space="preserve">Update is also completed. Making popup for terms and conditions and once accpted not not display again for that particular session in dna report</t>
   </si>
   <si>
-    <t xml:space="preserve">discussing about what next changes to be done and started working on Ui of health history page and popup when we click to  health history is done</t>
+    <t xml:space="preserve">discussing about what next changes to be done and started working on Ui of health history page and popup when we click to  health history is done. Dashboard button Ui changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woking on code to display panel depends of selection from admin side. And adding heallthy history form database connection is done and diplay updated history in fields also done. 15 min break inbetween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI for upload health history done. Database creation for that data also done. If data Already uploaded then view and show form for update existing data. Writing on script for counting and combining.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on volcano plot for excel file data. Started working on genetic snapshot page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">session for suhani (R basics completed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic page completed and pgx report also completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing code for generating heatmap input, discussing with rizwan about project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration process popup instaed of message in captcha , successful, email already exists or contact number already exists. Generated heatmap ouput for yesterdays code. Discussing baout new code (cufflink merge) started  working on it. 5 min break in between</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Session for rebijit. (1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> session completed)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">code for cuffmerge completed. Started working on Ui of forgot password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on code. session for rebijit. 10 min break inbetween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r plots for debashish. Working on code. Filtering data of all panel if snp empty in panel as well as snp tab.forgot password UI completed as well as sent email for password also done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on changes in heatmap code. And reading about pandas conat function</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">11:15 to 12:00 - 3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> session completed for rebijit. Generating final heatmap for group1 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">generating output of group3 and group4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> session for sureshbabu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GUI for order_id add uplate and upload through document id is done. And small change in forgot password option is also done. 4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> session for rebijit </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on change password feature at user side too., working on code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee addeding is completed.</t>
   </si>
 </sst>
 </file>
@@ -6707,7 +6873,7 @@
     <numFmt numFmtId="167" formatCode="[HH]:MM:SS"/>
     <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6771,11 +6937,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6825,7 +6986,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6927,10 +7088,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7013,8 +7170,8 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7832,10 +7989,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9233,7 +9390,7 @@
       <c r="D135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="25" t="n">
+      <c r="A136" s="14" t="n">
         <v>44134</v>
       </c>
       <c r="B136" s="11" t="n">
@@ -9308,8 +9465,391 @@
       <c r="C142" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="15" t="s">
         <v>696</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="14" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B144" s="11" t="n">
+        <v>0.381944444444444</v>
+      </c>
+      <c r="C144" s="11" t="n">
+        <v>0.546527777777778</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="11" t="n">
+        <v>0.546527777777778</v>
+      </c>
+      <c r="C145" s="11" t="n">
+        <v>0.584722222222222</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="11" t="n">
+        <v>0.584722222222222</v>
+      </c>
+      <c r="C146" s="11" t="n">
+        <v>0.752083333333333</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="60.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="36.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>44137</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.384722222222222</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.461111111111111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="n">
+        <v>0.469444444444444</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="n">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.670138888888889</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="n">
+        <v>0.678472222222222</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.756944444444444</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>44138</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.545833333333333</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="n">
+        <v>0.545833333333333</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.759027777777778</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0.379166666666667</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="n">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="6" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="25" t="n">
+        <v>44142</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>0.380555555555556</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -9330,7 +9870,7 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9538,8 +10078,8 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10545,8 +11085,8 @@
   </sheetPr>
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12135,8 +12675,8 @@
   </sheetPr>
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AU25" activeCellId="0" sqref="AU25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13616,8 +14156,8 @@
   </sheetPr>
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14769,8 +15309,8 @@
   </sheetPr>
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16257,7 +16797,7 @@
   </sheetPr>
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -17903,7 +18443,7 @@
   </sheetPr>
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
